--- a/XHSJ/Assets/GameRoot/Config/excel/roleBase.xlsx
+++ b/XHSJ/Assets/GameRoot/Config/excel/roleBase.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +39,96 @@
   </si>
   <si>
     <t>玄幻大陆的帅哥们天生拥有强大的体魄，大力无穷，可空手碎山石！</t>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>peed</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireResistance</t>
+  </si>
+  <si>
+    <t>iceResistance</t>
+  </si>
+  <si>
+    <t>electricityResistance</t>
+  </si>
+  <si>
+    <t>poisonResistance</t>
+  </si>
+  <si>
+    <t>魂力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -93,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -108,6 +199,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -383,95 +476,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4827"/>
+  <dimension ref="A1:L4827"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="100" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="1">
+        <v>300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:12">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:12">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
@@ -19724,4 +19945,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XHSJ/Assets/GameRoot/Config/excel/roleBase.xlsx
+++ b/XHSJ/Assets/GameRoot/Config/excel/roleBase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -475,25 +475,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4827"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.36328125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
@@ -592,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>15</v>
@@ -630,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -19948,23 +19948,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20006,7 +20006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="15">
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
